--- a/registration page.xlsx
+++ b/registration page.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Test Case bohubrihi.com(registration page)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Software Testing\Test Case\Test Case bohubrihi.com(registration page)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="125">
   <si>
     <t>PASS</t>
   </si>
@@ -125,9 +125,6 @@
     <t>TC003</t>
   </si>
   <si>
-    <t>Don't show error message</t>
-  </si>
-  <si>
     <t>TC004</t>
   </si>
   <si>
@@ -137,9 +134,6 @@
     <t>TC006</t>
   </si>
   <si>
-    <t>It should not show error message</t>
-  </si>
-  <si>
     <t>TC007</t>
   </si>
   <si>
@@ -152,9 +146,6 @@
     <t>TC010</t>
   </si>
   <si>
-    <t>show error message and open taken to home page</t>
-  </si>
-  <si>
     <t>Naznin Nahar Munna</t>
   </si>
   <si>
@@ -164,175 +155,269 @@
     <t>Successfully register</t>
   </si>
   <si>
-    <t>Verify the full name section with maximum 30 character</t>
-  </si>
-  <si>
-    <t>Verify the email with wrong mail address</t>
-  </si>
-  <si>
     <t>https://bohubrihi.com/</t>
   </si>
   <si>
-    <t xml:space="preserve"> Verify the full name section with number alphabet combination</t>
-  </si>
-  <si>
-    <t>Munna14</t>
-  </si>
-  <si>
-    <t>Nicole Espinozakajdhfsmdbaidhsjsdfj</t>
-  </si>
-  <si>
-    <t>GoTo https://bohubrihi.com/-&gt; Tap on register page-&gt;Fillup the full name section with number alphabet combination-&gt; Tap on registeres</t>
-  </si>
-  <si>
-    <t>Verify the full name section with blank data</t>
-  </si>
-  <si>
     <t>no input</t>
   </si>
   <si>
-    <t>It should  successfully register</t>
-  </si>
-  <si>
-    <t>GoTo https://bohubrihi.com/-&gt; Tap on register page-&gt;Fillup the full name section without name-&gt; Tap on registeres</t>
-  </si>
-  <si>
-    <t>jerry@.cm</t>
-  </si>
-  <si>
-    <t>GoTo https://bohubrihi.com/-&gt; Tap on register page-&gt;Fillup the email section with invalid mail-&gt; Tap on registeres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">show error message </t>
-  </si>
-  <si>
-    <t>Verify the email with valid mail address</t>
-  </si>
-  <si>
-    <t>jerry@gmail.com</t>
-  </si>
-  <si>
-    <t>GoTo https://bohubrihi.com/-&gt; Tap on register page-&gt;Fillup the email section with valid mail-&gt; Tap on registeres</t>
-  </si>
-  <si>
-    <t>It Should Successfully register</t>
-  </si>
-  <si>
-    <t>Verify password section with 
-Upper &amp; lower Case combination</t>
-  </si>
-  <si>
-    <t>Geoffreyerere</t>
-  </si>
-  <si>
-    <t>Verify password section with  13 characters</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> It Should Successfully register</t>
-  </si>
-  <si>
-    <t>Verify password section less than
-7 characters</t>
-  </si>
-  <si>
-    <t>ActonB</t>
-  </si>
-  <si>
-    <t>GoTo https://bohubrihi.com/-&gt; Tap on register page-&gt;Fillup the password section with 13 Characters-&gt; Tap on registeres</t>
-  </si>
-  <si>
-    <t>GoTo https://bohubrihi.com/-&gt; Tap on register page-&gt;Fillup the password section with less than 7 Characters-&gt; Tap on registeres</t>
-  </si>
-  <si>
-    <t>It should show warning message</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It shows warning message </t>
-  </si>
-  <si>
-    <t>ActonBers12</t>
-  </si>
-  <si>
-    <t>GoTo https://bohubrihi.com/-&gt; Tap on register page-&gt;Fillup the password section with Upper &amp; lower Case combination-&gt; Tap on registeres</t>
-  </si>
-  <si>
-    <t>Verify the mobile number section with Bangladesh Mobile number</t>
-  </si>
-  <si>
-    <t>Verify the mobile number section with Foreign Mobile number</t>
-  </si>
-  <si>
-    <t>GoTo https://bohubrihi.com/-&gt; Tap on register page-&gt;Fillup the mobile number section with foreign number&gt; Tap on registeres</t>
-  </si>
-  <si>
-    <t>151 (739) 752-3833</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Don't show error message</t>
-  </si>
-  <si>
-    <t>GoTo https://bohubrihi.com/-&gt; Tap on register page-&gt;Fillup the mobile number section with Bangladesh mobile number&gt; Tap on registeres</t>
-  </si>
-  <si>
-    <t>GoTo https://bohubrihi.com/-&gt; Tap on register page-&gt;Fillup the full name section with  maximum 30 character-&gt; Tap on registeres</t>
-  </si>
-  <si>
-    <t>Constan</t>
-  </si>
-  <si>
-    <t>GoTo https://bohubrihi.com/-&gt; Tap on register page-&gt;Fillup the password section with 7 characters&gt; Tap on registeres</t>
-  </si>
-  <si>
-    <t>verify password section with 7 characters</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Show error message</t>
-  </si>
-  <si>
     <t>TC011</t>
   </si>
   <si>
     <t>TC012</t>
   </si>
   <si>
-    <t>Nicole Espinozakajdhfsmdbjadauidhjkagdkdh</t>
-  </si>
-  <si>
-    <t>It should not successfully register</t>
-  </si>
-  <si>
     <t>TC013</t>
   </si>
   <si>
-    <t>Verify the full name section with more than 30 characters</t>
-  </si>
-  <si>
-    <t>GoTo https://bohubrihi.com/-&gt; Tap on register page-&gt;Fillup the full name section with more than  30 characters-&gt; Tap on registeres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It should not be successfully registered </t>
-  </si>
-  <si>
-    <t>RhodaHester1421</t>
-  </si>
-  <si>
     <t>It should  show error message</t>
   </si>
   <si>
-    <t xml:space="preserve">It Should not be Successfully registered </t>
-  </si>
-  <si>
-    <t>verify password section with greater than 13 characters</t>
-  </si>
-  <si>
-    <t>GoTo https://bohubrihi.com/-&gt; Tap on register page-&gt;Fillup the password section with greater than 13  characters&gt; Tap on registeres</t>
+    <t>It Should not able to register</t>
+  </si>
+  <si>
+    <t>Failed to register</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Register with Full name section</t>
+  </si>
+  <si>
+    <t>1.GoTo https://bohubrihi.com/                     2. Tap on register page                            3.Fillup the full name section with blank                                4.Click on registere button</t>
+  </si>
+  <si>
+    <t>Register with Full name section</t>
+  </si>
+  <si>
+    <t>1.GoTo https://bohubrihi.com/                     2. Tap on register page                            3.Fillup the full name section with 30 Characters                                                  4.Click on registere button</t>
+  </si>
+  <si>
+    <t>Nicole Espinozakajdhfsmdbaidhsj</t>
+  </si>
+  <si>
+    <t>It should able to successfully register</t>
+  </si>
+  <si>
+    <t>1.GoTo https://bohubrihi.com/                     2. Tap on register page                            3.Fillup the full name section with more than 30 Characters                                                  4.Click on registere button</t>
+  </si>
+  <si>
+    <t>Nicole Espinozakajdhfsmdbaidhsjerty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It should not able to successfully registered </t>
+  </si>
+  <si>
+    <t>1.GoTo https://bohubrihi.com/                     2. Tap on register page                            3.Fillup the full name section with Special Characters                                                  4.Click on registere button</t>
+  </si>
+  <si>
+    <t>&amp;*$%^@%</t>
+  </si>
+  <si>
+    <t>1.GoTo https://bohubrihi.com/                     2. Tap on register page                            3.Fillup the full name section with Number aplhabet combination                                                  4.Click on registere button</t>
+  </si>
+  <si>
+    <t>Yasir14</t>
+  </si>
+  <si>
+    <t>1.GoTo https://bohubrihi.com/                     2. Tap on register page                            3.Fillup the full name section with same character                                                    4.Click on registere button</t>
+  </si>
+  <si>
+    <t>aaaaaaaaaaaaa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It Should  able to register</t>
+  </si>
+  <si>
+    <t>Register with email section</t>
+  </si>
+  <si>
+    <t>1.GoTo https://bohubrihi.com/                     2. Tap on register page                            3.Fillup the  email section with blank                                                   4.Click on registere button</t>
+  </si>
+  <si>
+    <t>1.GoTo https://bohubrihi.com/                     2. Tap on register page                            3.Fillup the  email section with invalid mail address                                                       4.Click on registere button</t>
+  </si>
+  <si>
+    <t>a@km</t>
+  </si>
+  <si>
+    <t>1.GoTo https://bohubrihi.com/                     2. Tap on register page                            3.Fillup the  email section with special character                                                   4.Click on registere button</t>
+  </si>
+  <si>
+    <t>*&amp;a@km.com%</t>
+  </si>
+  <si>
+    <t>1.GoTo https://bohubrihi.com/                     2. Tap on register page                            3.Fillup the  email section with valid email address                                                       4.Click on registere button</t>
+  </si>
+  <si>
+    <t>aji@gmail.com</t>
+  </si>
+  <si>
+    <t>1.GoTo https://bohubrihi.com/                     2. Tap on register page                            3.Fillup the  email section with valid email address   with special character                                                    4.Click on registere button</t>
+  </si>
+  <si>
+    <t>*aji@gmail.com$##</t>
+  </si>
+  <si>
+    <t>1.GoTo https://bohubrihi.com/                     2. Tap on register page                            3.Fillup the  email section with only Number                                                     4.Click on registere button</t>
+  </si>
+  <si>
+    <t>1234.net</t>
+  </si>
+  <si>
+    <t>Show error message</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> show error message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show error message </t>
+  </si>
+  <si>
+    <t>Register with password</t>
+  </si>
+  <si>
+    <t>1.GoTo https://bohubrihi.com/                     2. Tap on register page                            3.Fillup the  password section with blank                                                    4.Click on registere button</t>
+  </si>
+  <si>
+    <t>TC014</t>
+  </si>
+  <si>
+    <t>TC015</t>
+  </si>
+  <si>
+    <t>1.GoTo https://bohubrihi.com/                     2. Tap on register page                            3.Fillup the  password section with less than 7 characters                                                  4.Click on registere button</t>
+  </si>
+  <si>
+    <t>1.GoTo https://bohubrihi.com/                     2. Tap on register page                            3.Fillup the  password section with 7 characters                                                  4.Click on registere button</t>
+  </si>
+  <si>
+    <t>Maiter</t>
+  </si>
+  <si>
+    <t>Maitert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It should not show error message </t>
+  </si>
+  <si>
+    <t>TC016</t>
+  </si>
+  <si>
+    <t>1.GoTo https://bohubrihi.com/                     2. Tap on register page                            3.Fillup the  password section with 7 special characters                                                  4.Click on registere button</t>
+  </si>
+  <si>
+    <t>Show error meassge</t>
+  </si>
+  <si>
+    <t>TC017</t>
+  </si>
+  <si>
+    <t>@*($*@^</t>
+  </si>
+  <si>
+    <t>MaiteGoodwine</t>
+  </si>
+  <si>
+    <t>It Should successfully register</t>
+  </si>
+  <si>
+    <t>TC018</t>
+  </si>
+  <si>
+    <t>1.GoTo https://bohubrihi.com/                     2. Tap on register page                            3.Fillup the  password section with 13 characters                                                            4.Click on registere button</t>
+  </si>
+  <si>
+    <t>1.GoTo https://bohubrihi.com/                     2. Tap on register page                            3.Fillup the  password section with more than 13 characters                                                            4.Click on registere button</t>
+  </si>
+  <si>
+    <t>MaiteGoodwiner</t>
+  </si>
+  <si>
+    <t>It Should not able successfully register</t>
+  </si>
+  <si>
+    <t>TC019</t>
+  </si>
+  <si>
+    <t>1.GoTo https://bohubrihi.com/                     2. Tap on register page                            3.Fillup the  password section with number                                                         4.Click on registere button</t>
+  </si>
+  <si>
+    <t>TC020</t>
+  </si>
+  <si>
+    <t>1.GoTo https://bohubrihi.com/                     2. Tap on register page                            3.Fillup the  password section with Space                                                         4.Click on registere button</t>
+  </si>
+  <si>
+    <t>Maite Goodwine</t>
+  </si>
+  <si>
+    <t>TC021</t>
+  </si>
+  <si>
+    <t>Register with phone number</t>
+  </si>
+  <si>
+    <t>TC022</t>
+  </si>
+  <si>
+    <t>1.GoTo https://bohubrihi.com/                     2. Tap on register page                            3.Fillup the  phone section with Foreign number                                                       4.Click on registere button</t>
+  </si>
+  <si>
+    <t>1 (769) 726-9137</t>
+  </si>
+  <si>
+    <t>TC023</t>
+  </si>
+  <si>
+    <t>1.GoTo https://bohubrihi.com/                     2. Tap on register page                            3.Fillup the  phone section with Characters                                                   4.Click on registere button</t>
+  </si>
+  <si>
+    <t>Abcdergfs</t>
+  </si>
+  <si>
+    <t>ABcdfeGhil</t>
+  </si>
+  <si>
+    <t>1.GoTo https://bohubrihi.com/                     2. Tap on register page                            3.Fillup the  phone section with upper &amp; lower combination                                                        4.Click on registere button</t>
+  </si>
+  <si>
+    <t>T0C24</t>
+  </si>
+  <si>
+    <t>It should not able to successfully register</t>
+  </si>
+  <si>
+    <t>1.GoTo https://bohubrihi.com/                     2. Tap on register page                            3.Fillup the  phone section with blank                                                   4.Click on registere button</t>
+  </si>
+  <si>
+    <t>TC025</t>
+  </si>
+  <si>
+    <t>1.GoTo https://bohubrihi.com/                     2. Tap on register page                            3.Fillup the  phone section with less than 11 number                                                                  4.Click on registere button</t>
+  </si>
+  <si>
+    <t>TC026</t>
+  </si>
+  <si>
+    <t>1.GoTo https://bohubrihi.com/                     2. Tap on register page                            3.Fillup the  phone section with more than 11 number                                                                  4.Click on registere button</t>
+  </si>
+  <si>
+    <t>TC027</t>
+  </si>
+  <si>
+    <t>1.GoTo https://bohubrihi.com/                     2. Tap on register page                            3.Fillup the  phone section with Bangladeshi code                                                                  4.Click on registere button</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="000\-00\-0000"/>
+  </numFmts>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -401,8 +486,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -451,8 +541,20 @@
         <bgColor rgb="FFD6E3BC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF33"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -604,28 +706,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -647,15 +727,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -688,12 +759,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -764,9 +892,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -776,27 +901,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -815,51 +922,54 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -887,12 +997,71 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="52">
+  <dxfs count="40">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1303,131 +1472,15 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF66FF33"/>
+      <color rgb="FF33CC33"/>
+      <color rgb="FF66FF66"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1437,363 +1490,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>901212</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>740019</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12287250" y="1436077"/>
-          <a:ext cx="901212" cy="740019"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>744735</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>36636</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>607850</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12287251" y="2180812"/>
-          <a:ext cx="952500" cy="625115"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>7327</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>14655</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>36635</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>468923</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12294577" y="2835520"/>
-          <a:ext cx="945173" cy="454268"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>14654</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>461596</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12287251" y="3304442"/>
-          <a:ext cx="930518" cy="461596"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2000249</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>908538</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>476250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12287249" y="4271597"/>
-          <a:ext cx="908539" cy="476249"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>21981</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>608136</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12287250" y="4777154"/>
-          <a:ext cx="915865" cy="586155"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1963809</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>29308</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>7328</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>608135</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12250809" y="5429250"/>
-          <a:ext cx="959634" cy="578827"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>901213</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>630115</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12287251" y="6044712"/>
-          <a:ext cx="901212" cy="630115"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2064,16 +1760,16 @@
   </sheetPr>
   <dimension ref="A1:I975"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A44" sqref="A44:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.85546875" style="6" customWidth="1"/>
     <col min="2" max="2" width="18.140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="6" customWidth="1"/>
     <col min="4" max="4" width="34.85546875" style="6" customWidth="1"/>
     <col min="5" max="5" width="37.85546875" style="6" customWidth="1"/>
     <col min="6" max="6" width="28.28515625" style="6" customWidth="1"/>
@@ -2084,49 +1780,49 @@
     <col min="11" max="16384" width="14.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="36" t="s">
-        <v>45</v>
+      <c r="B1" s="56"/>
+      <c r="C1" s="39" t="s">
+        <v>40</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="37">
+      <c r="E1" s="30">
         <v>44806</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="37">
+      <c r="G1" s="30">
         <v>44816</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="64"/>
+      <c r="I1" s="58"/>
     </row>
-    <row r="2" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="59" t="s">
+    <row r="2" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="36" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="29" t="s">
         <v>27</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="37">
+      <c r="E2" s="30">
         <v>44806</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="37">
+      <c r="G2" s="30">
         <v>44816</v>
       </c>
       <c r="H2" s="4" t="s">
@@ -2134,23 +1830,23 @@
       </c>
       <c r="I2" s="20">
         <f>COUNTIF(G7:G43, "PASS")</f>
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="54"/>
       <c r="C3" s="2"/>
       <c r="D3" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="38">
+      <c r="G3" s="31">
         <v>1</v>
       </c>
       <c r="H3" s="9" t="s">
@@ -2158,14 +1854,14 @@
       </c>
       <c r="I3" s="21">
         <f>COUNTIF(G8:G43, "Fail")</f>
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="60"/>
+      <c r="B4" s="54"/>
       <c r="C4" s="2"/>
       <c r="D4" s="8" t="s">
         <v>13</v>
@@ -2186,21 +1882,21 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="57"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="51"/>
       <c r="H5" s="11" t="s">
         <v>17</v>
       </c>
       <c r="I5" s="23">
         <f>SUM(I2:I4:I3)</f>
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2226,581 +1922,756 @@
         <v>21</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>41</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="I6" s="41"/>
     </row>
-    <row r="7" spans="1:9" ht="60.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="48"/>
-      <c r="I7" s="41"/>
+      <c r="G7" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="40"/>
     </row>
-    <row r="8" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="42"/>
-      <c r="I8" s="44"/>
+      <c r="I8" s="35"/>
     </row>
-    <row r="9" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="47" t="s">
         <v>51</v>
       </c>
+      <c r="C9" s="43" t="s">
+        <v>56</v>
+      </c>
       <c r="D9" s="16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="43"/>
-      <c r="I9" s="44"/>
+      <c r="G9" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="35"/>
     </row>
-    <row r="10" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="36"/>
+    </row>
+    <row r="11" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" s="45"/>
-      <c r="I10" s="46"/>
+      <c r="B11" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="36"/>
     </row>
-    <row r="11" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
+    <row r="12" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11" s="32"/>
-      <c r="I11" s="46"/>
-    </row>
-    <row r="12" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
-        <v>33</v>
-      </c>
       <c r="B12" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="D12" s="16" t="s">
         <v>62</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>67</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>64</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="31"/>
-      <c r="I12" s="40"/>
+      <c r="H12" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="33"/>
     </row>
-    <row r="13" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="16" t="s">
-        <v>68</v>
-      </c>
       <c r="E13" s="15" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="H13" s="31"/>
-      <c r="I13" s="40"/>
+      <c r="H13" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="33"/>
     </row>
-    <row r="14" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="49" t="s">
-        <v>71</v>
+        <v>65</v>
+      </c>
+      <c r="C14" s="61" t="s">
+        <v>68</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="H14" s="32"/>
-      <c r="I14" s="40"/>
+      <c r="H14" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="33"/>
     </row>
-    <row r="15" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" s="54" t="s">
-        <v>80</v>
+        <v>65</v>
+      </c>
+      <c r="C15" s="62" t="s">
+        <v>70</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="33"/>
-      <c r="I15" s="40"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" s="33"/>
     </row>
-    <row r="16" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="53">
-        <v>1784368168</v>
+        <v>65</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>72</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G16" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="H16" s="33"/>
-      <c r="I16" s="40"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="33"/>
     </row>
-    <row r="17" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="B17" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="52" t="s">
+      <c r="D17" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" s="33"/>
+    </row>
+    <row r="18" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D18" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E18" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F18" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="G17" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="33"/>
-      <c r="I17" s="40"/>
+      <c r="G18" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" s="35"/>
     </row>
-    <row r="18" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="H18" s="55"/>
-      <c r="I18" s="44"/>
-    </row>
-    <row r="19" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19" s="54" t="s">
-        <v>92</v>
+        <v>80</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>41</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>77</v>
       </c>
       <c r="G19" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" s="36"/>
+    </row>
+    <row r="20" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="67" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" s="72"/>
+    </row>
+    <row r="21" spans="1:9" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="67" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="67" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="68" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H19" s="33"/>
-      <c r="I19" s="40"/>
+      <c r="H21" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" s="72"/>
     </row>
-    <row r="20" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="33"/>
+    <row r="22" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="75" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="I22" s="72"/>
     </row>
-    <row r="21" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="19"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="34"/>
+    <row r="23" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="69" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="67" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23" s="72"/>
     </row>
-    <row r="22" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="33"/>
+    <row r="24" spans="1:9" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="67" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="I24" s="72"/>
     </row>
-    <row r="23" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="33"/>
+    <row r="25" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="77">
+        <v>123456790101010</v>
+      </c>
+      <c r="D25" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="I25" s="72"/>
     </row>
-    <row r="24" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="19"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="34"/>
+    <row r="26" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="74"/>
+      <c r="I26" s="72"/>
     </row>
-    <row r="25" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="33"/>
+    <row r="27" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="67" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="68" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="59"/>
+      <c r="I27" s="72"/>
     </row>
-    <row r="26" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="33"/>
+    <row r="28" spans="1:9" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="68" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="I28" s="72"/>
     </row>
-    <row r="27" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="19"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="34"/>
+    <row r="29" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" s="65" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="I29" s="72"/>
     </row>
-    <row r="28" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="33"/>
+    <row r="30" spans="1:9" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="67" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="65" t="s">
+        <v>118</v>
+      </c>
+      <c r="E30" s="67" t="s">
+        <v>117</v>
+      </c>
+      <c r="F30" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="H30" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="I30" s="72"/>
     </row>
-    <row r="29" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="33"/>
+    <row r="31" spans="1:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="68">
+        <v>183649628</v>
+      </c>
+      <c r="D31" s="65" t="s">
+        <v>120</v>
+      </c>
+      <c r="E31" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="I31" s="72"/>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="19"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="34"/>
+    <row r="32" spans="1:9" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" s="70">
+        <v>18364962818</v>
+      </c>
+      <c r="D32" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="E32" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="I32" s="72"/>
     </row>
-    <row r="31" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="33"/>
+    <row r="33" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="67" t="s">
+        <v>123</v>
+      </c>
+      <c r="B33" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="68">
+        <v>1785426736</v>
+      </c>
+      <c r="D33" s="65" t="s">
+        <v>124</v>
+      </c>
+      <c r="E33" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33" s="73"/>
+      <c r="I33" s="72"/>
     </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="33"/>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="19"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="34"/>
-    </row>
-    <row r="34" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="15"/>
-      <c r="C34" s="27"/>
+      <c r="C34" s="26"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
-      <c r="H34" s="33"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="72"/>
     </row>
-    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="33"/>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="19"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="34"/>
-    </row>
-    <row r="37" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="33"/>
-    </row>
-    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="33"/>
-    </row>
-    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="19"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="34"/>
-    </row>
-    <row r="40" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="14"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="33"/>
-    </row>
-    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="14"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="33"/>
-    </row>
-    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="19"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="34"/>
-    </row>
-    <row r="43" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="14"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="33"/>
-    </row>
-    <row r="44" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H44" s="33"/>
-    </row>
-    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3740,203 +3611,143 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="G8:G16 G20:G23">
-    <cfRule type="cellIs" dxfId="51" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="69" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:G16 G20:G23">
-    <cfRule type="cellIs" dxfId="50" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="70" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:G16 G20:G23">
-    <cfRule type="cellIs" dxfId="49" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="71" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:G16 G20:G23">
-    <cfRule type="containsBlanks" dxfId="48" priority="72">
+    <cfRule type="containsBlanks" dxfId="36" priority="72">
       <formula>LEN(TRIM(G8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="cellIs" dxfId="47" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="53" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="cellIs" dxfId="46" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="54" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="cellIs" dxfId="45" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="55" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="containsBlanks" dxfId="44" priority="56">
+    <cfRule type="containsBlanks" dxfId="32" priority="56">
       <formula>LEN(TRIM(G29))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="43" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="49" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="42" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="50" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="41" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="51" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="containsBlanks" dxfId="40" priority="52">
+    <cfRule type="containsBlanks" dxfId="28" priority="52">
       <formula>LEN(TRIM(G32))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G35">
-    <cfRule type="cellIs" dxfId="39" priority="45" operator="equal">
+  <conditionalFormatting sqref="I2">
+    <cfRule type="cellIs" dxfId="27" priority="41" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G35">
-    <cfRule type="cellIs" dxfId="38" priority="46" operator="equal">
+  <conditionalFormatting sqref="I2">
+    <cfRule type="cellIs" dxfId="26" priority="42" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G35">
-    <cfRule type="cellIs" dxfId="37" priority="47" operator="equal">
+  <conditionalFormatting sqref="I2">
+    <cfRule type="cellIs" dxfId="25" priority="43" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G35">
-    <cfRule type="containsBlanks" dxfId="36" priority="48">
-      <formula>LEN(TRIM(G35))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="35" priority="41" operator="equal">
+    <cfRule type="containsBlanks" dxfId="24" priority="44">
+      <formula>LEN(TRIM(I2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="cellIs" dxfId="23" priority="37" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="34" priority="42" operator="equal">
+  <conditionalFormatting sqref="I3">
+    <cfRule type="cellIs" dxfId="22" priority="38" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="33" priority="43" operator="equal">
+  <conditionalFormatting sqref="I3">
+    <cfRule type="cellIs" dxfId="21" priority="39" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
-    <cfRule type="containsBlanks" dxfId="32" priority="44">
-      <formula>LEN(TRIM(I2))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="31" priority="37" operator="equal">
+    <cfRule type="containsBlanks" dxfId="20" priority="40">
+      <formula>LEN(TRIM(I3))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="cellIs" dxfId="19" priority="33" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="30" priority="38" operator="equal">
+  <conditionalFormatting sqref="G7">
+    <cfRule type="cellIs" dxfId="18" priority="34" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="29" priority="39" operator="equal">
+  <conditionalFormatting sqref="G7">
+    <cfRule type="cellIs" dxfId="17" priority="35" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
-    <cfRule type="containsBlanks" dxfId="28" priority="40">
-      <formula>LEN(TRIM(I3))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="27" priority="33" operator="equal">
+    <cfRule type="containsBlanks" dxfId="16" priority="36">
+      <formula>LEN(TRIM(G7))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="cellIs" dxfId="15" priority="25" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="26" priority="34" operator="equal">
+  <conditionalFormatting sqref="G26">
+    <cfRule type="cellIs" dxfId="14" priority="26" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="25" priority="35" operator="equal">
+  <conditionalFormatting sqref="G26">
+    <cfRule type="cellIs" dxfId="13" priority="27" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="containsBlanks" dxfId="24" priority="36">
-      <formula>LEN(TRIM(G7))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="22" priority="26" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="21" priority="27" operator="equal">
-      <formula>"WARNING"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
-    <cfRule type="containsBlanks" dxfId="20" priority="28">
+    <cfRule type="containsBlanks" dxfId="12" priority="28">
       <formula>LEN(TRIM(G26))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G38">
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G38">
-    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G38">
-    <cfRule type="cellIs" dxfId="17" priority="23" operator="equal">
-      <formula>"WARNING"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G38">
-    <cfRule type="containsBlanks" dxfId="16" priority="24">
-      <formula>LEN(TRIM(G38))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G41">
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G41">
-    <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G41">
-    <cfRule type="cellIs" dxfId="13" priority="19" operator="equal">
-      <formula>"WARNING"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G41">
-    <cfRule type="containsBlanks" dxfId="12" priority="20">
-      <formula>LEN(TRIM(G41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
@@ -4000,16 +3811,41 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations xWindow="1346" yWindow="406" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Click and enter a value from the list of items" sqref="G38 G41 G26 G29 G32 G35 G7:G23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Click and enter a value from the list of items" sqref="G26 G29 G32 G7:G23">
       <formula1>"PASS,FAIL,WARNING"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C11" location="'Test Cases'!A1" display="jerry@gmail.com"/>
-    <hyperlink ref="C10" location="'Test Cases'!A1" display="jerry@.cm"/>
+    <hyperlink ref="H8" r:id="rId1"/>
+    <hyperlink ref="H9" r:id="rId2"/>
+    <hyperlink ref="H10" r:id="rId3"/>
+    <hyperlink ref="H11" r:id="rId4"/>
+    <hyperlink ref="H12" r:id="rId5"/>
+    <hyperlink ref="H13" r:id="rId6"/>
+    <hyperlink ref="H14" r:id="rId7"/>
+    <hyperlink ref="H15" r:id="rId8"/>
+    <hyperlink ref="C16" location="'Test Cases'!A1" display="aji@gmail.com"/>
+    <hyperlink ref="C17" location="'Test Cases'!A1" display="*aji@gmail.com$##"/>
+    <hyperlink ref="H17" r:id="rId9"/>
+    <hyperlink ref="H18" r:id="rId10"/>
+    <hyperlink ref="H7" r:id="rId11"/>
+    <hyperlink ref="C14" location="'Test Cases'!A1" display="a@km"/>
+    <hyperlink ref="C15" location="'Test Cases'!A1" display="*&amp;a@km.com%"/>
+    <hyperlink ref="C18" location="'Test Cases'!A1" display="1234.net"/>
+    <hyperlink ref="H19" r:id="rId12"/>
+    <hyperlink ref="H20" r:id="rId13"/>
+    <hyperlink ref="H21" r:id="rId14"/>
+    <hyperlink ref="H22" r:id="rId15"/>
+    <hyperlink ref="H23" r:id="rId16"/>
+    <hyperlink ref="H24" r:id="rId17"/>
+    <hyperlink ref="H25" r:id="rId18"/>
+    <hyperlink ref="H28" r:id="rId19"/>
+    <hyperlink ref="H29" r:id="rId20"/>
+    <hyperlink ref="H30" r:id="rId21"/>
+    <hyperlink ref="H31" r:id="rId22"/>
+    <hyperlink ref="H32" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="landscape" r:id="rId24"/>
 </worksheet>
 </file>